--- a/Documentacion/ejemplo cuadrantes pais destino USA.xlsx
+++ b/Documentacion/ejemplo cuadrantes pais destino USA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja3" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4983,7 +4983,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F132" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -5953,7 +5953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -8372,7 +8372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H414"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -8384,6 +8384,7 @@
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
